--- a/docs/Training Scenarios.xlsx
+++ b/docs/Training Scenarios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\research\ctf_public_jh\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\research\ctf_public_jh\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDE1938-4A9D-44AB-A705-91496C44E40E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06508F72-1454-436F-9784-5E618C23C163}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628" xr2:uid="{D30D5B4E-6B4C-4E3B-BEBB-943AF2C63DA1}"/>
   </bookViews>
@@ -90,9 +90,6 @@
     <t>Why Important?</t>
   </si>
   <si>
-    <t>Shows importance of UAVs for improving observability</t>
-  </si>
-  <si>
     <t>Learns quickly, easy test to see that a learning algorithm works</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>Shows effects of adversarial enemy and partial obsv</t>
+  </si>
+  <si>
+    <t>Shows importance of UAVs in a large environment</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2DA7AD-FC92-4EF8-AC18-8A5D0142AFE0}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -563,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -571,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -589,7 +589,7 @@
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -597,10 +597,10 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -609,13 +609,13 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -623,25 +623,25 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -649,25 +649,25 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -684,16 +684,16 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -704,22 +704,22 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -730,13 +730,13 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
         <v>4</v>
@@ -745,7 +745,7 @@
         <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -762,16 +762,16 @@
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -788,16 +788,16 @@
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1095,11 +1095,11 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H32">
+  <sortState ref="A2:H21">
     <sortCondition descending="1" ref="B1"/>
   </sortState>
   <conditionalFormatting sqref="A24:A1048576 A1:A21">
